--- a/clusters.xlsx
+++ b/clusters.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Muhammed Karakurt\Desktop\IE 492 Final Project\Codes\IE492\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Muhammed Karakurt\Desktop\IE 492 Final Project\Codes\IE492-HEURISTICS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{453877F7-2387-468D-A746-3754B73F3342}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66148F77-9BA0-4215-B0C8-D84EF029D868}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -674,7 +674,7 @@
   <dimension ref="A1:B103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -700,7 +700,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -708,7 +708,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -716,7 +716,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -724,7 +724,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -732,7 +732,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -740,7 +740,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -748,7 +748,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -756,7 +756,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -764,7 +764,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -772,7 +772,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -780,7 +780,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -788,7 +788,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -796,7 +796,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -804,7 +804,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -812,7 +812,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -820,7 +820,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -828,7 +828,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -836,7 +836,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -844,7 +844,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -852,7 +852,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -860,7 +860,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -868,7 +868,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -876,7 +876,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -884,7 +884,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -892,7 +892,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -900,7 +900,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -908,7 +908,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -916,7 +916,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -940,7 +940,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -956,7 +956,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -964,7 +964,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -972,7 +972,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -980,7 +980,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -988,7 +988,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -996,7 +996,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -1012,7 +1012,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -1020,7 +1020,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -1028,7 +1028,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -1036,7 +1036,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -1044,7 +1044,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -1052,7 +1052,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -1060,7 +1060,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -1068,7 +1068,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -1076,7 +1076,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -1092,7 +1092,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -1100,7 +1100,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -1108,7 +1108,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -1116,7 +1116,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -1124,7 +1124,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -1148,7 +1148,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -1172,7 +1172,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -1180,7 +1180,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -1188,7 +1188,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -1196,7 +1196,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -1220,7 +1220,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -1228,7 +1228,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -1244,7 +1244,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -1252,7 +1252,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
@@ -1260,7 +1260,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
@@ -1268,7 +1268,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
@@ -1284,7 +1284,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
@@ -1292,7 +1292,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
@@ -1300,7 +1300,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
@@ -1308,7 +1308,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
@@ -1316,7 +1316,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
@@ -1324,7 +1324,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
@@ -1332,7 +1332,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
@@ -1356,7 +1356,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
@@ -1364,7 +1364,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
@@ -1372,7 +1372,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
@@ -1380,7 +1380,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
@@ -1388,7 +1388,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
@@ -1396,7 +1396,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
@@ -1404,7 +1404,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
@@ -1412,7 +1412,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
@@ -1420,7 +1420,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
@@ -1428,7 +1428,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
@@ -1436,7 +1436,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
@@ -1444,7 +1444,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
@@ -1452,7 +1452,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
@@ -1460,7 +1460,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
@@ -1468,7 +1468,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
@@ -1476,7 +1476,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
@@ -1484,7 +1484,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
@@ -1500,7 +1500,7 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
